--- a/data dan database/Kelas XII.xlsx
+++ b/data dan database/Kelas XII.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-voting-master\data dan database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B462415-193F-44A5-9BCB-F3289A32AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15600" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RPL" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>smkbn-25</author>
   </authors>
   <commentList>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,12 +58,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>smkbn-25</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,12 +92,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>smkbn-25</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>Alfara Kristiani</t>
   </si>
@@ -408,13 +414,49 @@
   </si>
   <si>
     <t xml:space="preserve">NIS </t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xii rpl</t>
+  </si>
+  <si>
+    <t>xiirplvote</t>
+  </si>
+  <si>
+    <t>xii mm</t>
+  </si>
+  <si>
+    <t>xiimmvoting</t>
+  </si>
+  <si>
+    <t>xii tkro</t>
+  </si>
+  <si>
+    <t>tkroxiivote</t>
+  </si>
+  <si>
+    <t>xii bkp</t>
+  </si>
+  <si>
+    <t>xiibkpvote</t>
+  </si>
+  <si>
+    <t>tatabogavote</t>
+  </si>
+  <si>
+    <t>xii tb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +509,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,285 +587,341 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1334,6 +1454,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1382,7 +1505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,9 +1537,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1448,6 +1589,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1623,197 +1782,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6.54296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="21">
         <v>1011331</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>1011332</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
+      <c r="D4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>1011333</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="D5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>1011335</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>1011336</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>1011337</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>1011338</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>1011339</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>1011340</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>1011341</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>1011342</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>1011344</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>1011345</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>1011346</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>1011347</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1822,52 +1995,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="97" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="96" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="95" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="94" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="93" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="92" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="90" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="89" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="88" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="87" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="86" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="85" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="84" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="83" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="82" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1876,285 +2049,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6.54296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="21">
         <v>2011348</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>2011349</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
+      <c r="D4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>2011350</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="D5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>2011352</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>2011353</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>2011354</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>2011355</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>2011356</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>2011357</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>2011358</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>2011359</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>2011360</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>2011361</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>2011362</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>2011363</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>2011364</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>2011365</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>2011366</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>2011367</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>2011368</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>2011369</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>2011370</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>2011371</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2163,322 +2350,327 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="81" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="80" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="79" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="78" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="77" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="76" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="75" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="74" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="73" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="72" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="71" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="70" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="69" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="68" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="67" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="65" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="64" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="62" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="61" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="60" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CU19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="14" customWidth="1"/>
-    <col min="4" max="99" width="9.140625" style="15"/>
-    <col min="100" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="6.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="15" customHeight="1">
+    <row r="1" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:99" s="11" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:99" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="16"/>
-    </row>
-    <row r="3" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+    </row>
+    <row r="3" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="1">
         <v>3011372</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="18"/>
-      <c r="CE3" s="18"/>
-      <c r="CF3" s="18"/>
-      <c r="CG3" s="18"/>
-      <c r="CH3" s="18"/>
-      <c r="CI3" s="18"/>
-      <c r="CJ3" s="18"/>
-      <c r="CK3" s="18"/>
-      <c r="CL3" s="18"/>
-      <c r="CM3" s="18"/>
-      <c r="CN3" s="18"/>
-      <c r="CO3" s="18"/>
-      <c r="CP3" s="18"/>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18"/>
-    </row>
-    <row r="4" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="17"/>
+      <c r="BL3" s="17"/>
+      <c r="BM3" s="17"/>
+      <c r="BN3" s="17"/>
+      <c r="BO3" s="17"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="17"/>
+      <c r="BR3" s="17"/>
+      <c r="BS3" s="17"/>
+      <c r="BT3" s="17"/>
+      <c r="BU3" s="17"/>
+      <c r="BV3" s="17"/>
+      <c r="BW3" s="17"/>
+      <c r="BX3" s="17"/>
+      <c r="BY3" s="17"/>
+      <c r="BZ3" s="17"/>
+      <c r="CA3" s="17"/>
+      <c r="CB3" s="17"/>
+      <c r="CC3" s="17"/>
+      <c r="CD3" s="17"/>
+      <c r="CE3" s="17"/>
+      <c r="CF3" s="17"/>
+      <c r="CG3" s="17"/>
+      <c r="CH3" s="17"/>
+      <c r="CI3" s="17"/>
+      <c r="CJ3" s="17"/>
+      <c r="CK3" s="17"/>
+      <c r="CL3" s="17"/>
+      <c r="CM3" s="17"/>
+      <c r="CN3" s="17"/>
+      <c r="CO3" s="17"/>
+      <c r="CP3" s="17"/>
+      <c r="CQ3" s="17"/>
+      <c r="CR3" s="17"/>
+      <c r="CS3" s="17"/>
+      <c r="CT3" s="17"/>
+      <c r="CU3" s="17"/>
+    </row>
+    <row r="4" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="1">
         <v>3011373</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2574,225 +2766,229 @@
       <c r="CT4" s="12"/>
       <c r="CU4" s="12"/>
     </row>
-    <row r="5" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="1">
         <v>3011374</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="18"/>
-      <c r="BK5" s="18"/>
-      <c r="BL5" s="18"/>
-      <c r="BM5" s="18"/>
-      <c r="BN5" s="18"/>
-      <c r="BO5" s="18"/>
-      <c r="BP5" s="18"/>
-      <c r="BQ5" s="18"/>
-      <c r="BR5" s="18"/>
-      <c r="BS5" s="18"/>
-      <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
-      <c r="BV5" s="18"/>
-      <c r="BW5" s="18"/>
-      <c r="BX5" s="18"/>
-      <c r="BY5" s="18"/>
-      <c r="BZ5" s="18"/>
-      <c r="CA5" s="18"/>
-      <c r="CB5" s="18"/>
-      <c r="CC5" s="18"/>
-      <c r="CD5" s="18"/>
-      <c r="CE5" s="18"/>
-      <c r="CF5" s="18"/>
-      <c r="CG5" s="18"/>
-      <c r="CH5" s="18"/>
-      <c r="CI5" s="18"/>
-      <c r="CJ5" s="18"/>
-      <c r="CK5" s="18"/>
-      <c r="CL5" s="18"/>
-      <c r="CM5" s="18"/>
-      <c r="CN5" s="18"/>
-      <c r="CO5" s="18"/>
-      <c r="CP5" s="18"/>
-      <c r="CQ5" s="18"/>
-      <c r="CR5" s="18"/>
-      <c r="CS5" s="18"/>
-      <c r="CT5" s="18"/>
-      <c r="CU5" s="18"/>
-    </row>
-    <row r="6" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="D5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+      <c r="BD5" s="17"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="17"/>
+      <c r="BG5" s="17"/>
+      <c r="BH5" s="17"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="17"/>
+      <c r="BK5" s="17"/>
+      <c r="BL5" s="17"/>
+      <c r="BM5" s="17"/>
+      <c r="BN5" s="17"/>
+      <c r="BO5" s="17"/>
+      <c r="BP5" s="17"/>
+      <c r="BQ5" s="17"/>
+      <c r="BR5" s="17"/>
+      <c r="BS5" s="17"/>
+      <c r="BT5" s="17"/>
+      <c r="BU5" s="17"/>
+      <c r="BV5" s="17"/>
+      <c r="BW5" s="17"/>
+      <c r="BX5" s="17"/>
+      <c r="BY5" s="17"/>
+      <c r="BZ5" s="17"/>
+      <c r="CA5" s="17"/>
+      <c r="CB5" s="17"/>
+      <c r="CC5" s="17"/>
+      <c r="CD5" s="17"/>
+      <c r="CE5" s="17"/>
+      <c r="CF5" s="17"/>
+      <c r="CG5" s="17"/>
+      <c r="CH5" s="17"/>
+      <c r="CI5" s="17"/>
+      <c r="CJ5" s="17"/>
+      <c r="CK5" s="17"/>
+      <c r="CL5" s="17"/>
+      <c r="CM5" s="17"/>
+      <c r="CN5" s="17"/>
+      <c r="CO5" s="17"/>
+      <c r="CP5" s="17"/>
+      <c r="CQ5" s="17"/>
+      <c r="CR5" s="17"/>
+      <c r="CS5" s="17"/>
+      <c r="CT5" s="17"/>
+      <c r="CU5" s="17"/>
+    </row>
+    <row r="6" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="1">
         <v>3011375</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="18"/>
-      <c r="BM6" s="18"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="18"/>
-      <c r="BQ6" s="18"/>
-      <c r="BR6" s="18"/>
-      <c r="BS6" s="18"/>
-      <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="18"/>
-      <c r="BW6" s="18"/>
-      <c r="BX6" s="18"/>
-      <c r="BY6" s="18"/>
-      <c r="BZ6" s="18"/>
-      <c r="CA6" s="18"/>
-      <c r="CB6" s="18"/>
-      <c r="CC6" s="18"/>
-      <c r="CD6" s="18"/>
-      <c r="CE6" s="18"/>
-      <c r="CF6" s="18"/>
-      <c r="CG6" s="18"/>
-      <c r="CH6" s="18"/>
-      <c r="CI6" s="18"/>
-      <c r="CJ6" s="18"/>
-      <c r="CK6" s="18"/>
-      <c r="CL6" s="18"/>
-      <c r="CM6" s="18"/>
-      <c r="CN6" s="18"/>
-      <c r="CO6" s="18"/>
-      <c r="CP6" s="18"/>
-      <c r="CQ6" s="18"/>
-      <c r="CR6" s="18"/>
-      <c r="CS6" s="18"/>
-      <c r="CT6" s="18"/>
-      <c r="CU6" s="18"/>
-    </row>
-    <row r="7" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+    </row>
+    <row r="7" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="1">
         <v>3011376</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2895,11 +3091,11 @@
       <c r="CT7" s="12"/>
       <c r="CU7" s="12"/>
     </row>
-    <row r="8" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="1">
         <v>3011377</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3002,11 +3198,11 @@
       <c r="CT8" s="12"/>
       <c r="CU8" s="12"/>
     </row>
-    <row r="9" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="1">
         <v>3011378</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3109,225 +3305,225 @@
       <c r="CT9" s="12"/>
       <c r="CU9" s="12"/>
     </row>
-    <row r="10" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="1">
         <v>3011379</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
-      <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
-      <c r="BV10" s="18"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="18"/>
-      <c r="BY10" s="18"/>
-      <c r="BZ10" s="18"/>
-      <c r="CA10" s="18"/>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="18"/>
-      <c r="CI10" s="18"/>
-      <c r="CJ10" s="18"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="18"/>
-      <c r="CM10" s="18"/>
-      <c r="CN10" s="18"/>
-      <c r="CO10" s="18"/>
-      <c r="CP10" s="18"/>
-      <c r="CQ10" s="18"/>
-      <c r="CR10" s="18"/>
-      <c r="CS10" s="18"/>
-      <c r="CT10" s="18"/>
-      <c r="CU10" s="18"/>
-    </row>
-    <row r="11" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="17"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
+      <c r="BL10" s="17"/>
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
+      <c r="BO10" s="17"/>
+      <c r="BP10" s="17"/>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="17"/>
+      <c r="BS10" s="17"/>
+      <c r="BT10" s="17"/>
+      <c r="BU10" s="17"/>
+      <c r="BV10" s="17"/>
+      <c r="BW10" s="17"/>
+      <c r="BX10" s="17"/>
+      <c r="BY10" s="17"/>
+      <c r="BZ10" s="17"/>
+      <c r="CA10" s="17"/>
+      <c r="CB10" s="17"/>
+      <c r="CC10" s="17"/>
+      <c r="CD10" s="17"/>
+      <c r="CE10" s="17"/>
+      <c r="CF10" s="17"/>
+      <c r="CG10" s="17"/>
+      <c r="CH10" s="17"/>
+      <c r="CI10" s="17"/>
+      <c r="CJ10" s="17"/>
+      <c r="CK10" s="17"/>
+      <c r="CL10" s="17"/>
+      <c r="CM10" s="17"/>
+      <c r="CN10" s="17"/>
+      <c r="CO10" s="17"/>
+      <c r="CP10" s="17"/>
+      <c r="CQ10" s="17"/>
+      <c r="CR10" s="17"/>
+      <c r="CS10" s="17"/>
+      <c r="CT10" s="17"/>
+      <c r="CU10" s="17"/>
+    </row>
+    <row r="11" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="1">
         <v>3011382</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="18"/>
-      <c r="BL11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="18"/>
-      <c r="BR11" s="18"/>
-      <c r="BS11" s="18"/>
-      <c r="BT11" s="18"/>
-      <c r="BU11" s="18"/>
-      <c r="BV11" s="18"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="18"/>
-      <c r="BY11" s="18"/>
-      <c r="BZ11" s="18"/>
-      <c r="CA11" s="18"/>
-      <c r="CB11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="18"/>
-      <c r="CG11" s="18"/>
-      <c r="CH11" s="18"/>
-      <c r="CI11" s="18"/>
-      <c r="CJ11" s="18"/>
-      <c r="CK11" s="18"/>
-      <c r="CL11" s="18"/>
-      <c r="CM11" s="18"/>
-      <c r="CN11" s="18"/>
-      <c r="CO11" s="18"/>
-      <c r="CP11" s="18"/>
-      <c r="CQ11" s="18"/>
-      <c r="CR11" s="18"/>
-      <c r="CS11" s="18"/>
-      <c r="CT11" s="18"/>
-      <c r="CU11" s="18"/>
-    </row>
-    <row r="12" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="17"/>
+      <c r="BL11" s="17"/>
+      <c r="BM11" s="17"/>
+      <c r="BN11" s="17"/>
+      <c r="BO11" s="17"/>
+      <c r="BP11" s="17"/>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="17"/>
+      <c r="BS11" s="17"/>
+      <c r="BT11" s="17"/>
+      <c r="BU11" s="17"/>
+      <c r="BV11" s="17"/>
+      <c r="BW11" s="17"/>
+      <c r="BX11" s="17"/>
+      <c r="BY11" s="17"/>
+      <c r="BZ11" s="17"/>
+      <c r="CA11" s="17"/>
+      <c r="CB11" s="17"/>
+      <c r="CC11" s="17"/>
+      <c r="CD11" s="17"/>
+      <c r="CE11" s="17"/>
+      <c r="CF11" s="17"/>
+      <c r="CG11" s="17"/>
+      <c r="CH11" s="17"/>
+      <c r="CI11" s="17"/>
+      <c r="CJ11" s="17"/>
+      <c r="CK11" s="17"/>
+      <c r="CL11" s="17"/>
+      <c r="CM11" s="17"/>
+      <c r="CN11" s="17"/>
+      <c r="CO11" s="17"/>
+      <c r="CP11" s="17"/>
+      <c r="CQ11" s="17"/>
+      <c r="CR11" s="17"/>
+      <c r="CS11" s="17"/>
+      <c r="CT11" s="17"/>
+      <c r="CU11" s="17"/>
+    </row>
+    <row r="12" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="1">
         <v>3011383</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3430,11 +3626,11 @@
       <c r="CT12" s="12"/>
       <c r="CU12" s="12"/>
     </row>
-    <row r="13" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="1">
         <v>3011384</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3537,11 +3733,11 @@
       <c r="CT13" s="12"/>
       <c r="CU13" s="12"/>
     </row>
-    <row r="14" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="1">
         <v>3011385</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3644,11 +3840,11 @@
       <c r="CT14" s="12"/>
       <c r="CU14" s="12"/>
     </row>
-    <row r="15" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:99" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="1">
         <v>3011386</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3751,228 +3947,228 @@
       <c r="CT15" s="12"/>
       <c r="CU15" s="12"/>
     </row>
-    <row r="16" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="1">
         <v>3011387</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="18"/>
-      <c r="BE16" s="18"/>
-      <c r="BF16" s="18"/>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="18"/>
-      <c r="BI16" s="18"/>
-      <c r="BJ16" s="18"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="18"/>
-      <c r="BM16" s="18"/>
-      <c r="BN16" s="18"/>
-      <c r="BO16" s="18"/>
-      <c r="BP16" s="18"/>
-      <c r="BQ16" s="18"/>
-      <c r="BR16" s="18"/>
-      <c r="BS16" s="18"/>
-      <c r="BT16" s="18"/>
-      <c r="BU16" s="18"/>
-      <c r="BV16" s="18"/>
-      <c r="BW16" s="18"/>
-      <c r="BX16" s="18"/>
-      <c r="BY16" s="18"/>
-      <c r="BZ16" s="18"/>
-      <c r="CA16" s="18"/>
-      <c r="CB16" s="18"/>
-      <c r="CC16" s="18"/>
-      <c r="CD16" s="18"/>
-      <c r="CE16" s="18"/>
-      <c r="CF16" s="18"/>
-      <c r="CG16" s="18"/>
-      <c r="CH16" s="18"/>
-      <c r="CI16" s="18"/>
-      <c r="CJ16" s="18"/>
-      <c r="CK16" s="18"/>
-      <c r="CL16" s="18"/>
-      <c r="CM16" s="18"/>
-      <c r="CN16" s="18"/>
-      <c r="CO16" s="18"/>
-      <c r="CP16" s="18"/>
-      <c r="CQ16" s="18"/>
-      <c r="CR16" s="18"/>
-      <c r="CS16" s="18"/>
-      <c r="CT16" s="18"/>
-      <c r="CU16" s="18"/>
-    </row>
-    <row r="17" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="17"/>
+      <c r="BJ16" s="17"/>
+      <c r="BK16" s="17"/>
+      <c r="BL16" s="17"/>
+      <c r="BM16" s="17"/>
+      <c r="BN16" s="17"/>
+      <c r="BO16" s="17"/>
+      <c r="BP16" s="17"/>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="17"/>
+      <c r="BT16" s="17"/>
+      <c r="BU16" s="17"/>
+      <c r="BV16" s="17"/>
+      <c r="BW16" s="17"/>
+      <c r="BX16" s="17"/>
+      <c r="BY16" s="17"/>
+      <c r="BZ16" s="17"/>
+      <c r="CA16" s="17"/>
+      <c r="CB16" s="17"/>
+      <c r="CC16" s="17"/>
+      <c r="CD16" s="17"/>
+      <c r="CE16" s="17"/>
+      <c r="CF16" s="17"/>
+      <c r="CG16" s="17"/>
+      <c r="CH16" s="17"/>
+      <c r="CI16" s="17"/>
+      <c r="CJ16" s="17"/>
+      <c r="CK16" s="17"/>
+      <c r="CL16" s="17"/>
+      <c r="CM16" s="17"/>
+      <c r="CN16" s="17"/>
+      <c r="CO16" s="17"/>
+      <c r="CP16" s="17"/>
+      <c r="CQ16" s="17"/>
+      <c r="CR16" s="17"/>
+      <c r="CS16" s="17"/>
+      <c r="CT16" s="17"/>
+      <c r="CU16" s="17"/>
+    </row>
+    <row r="17" spans="1:99" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="1">
         <v>3011388</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="18"/>
-      <c r="BF17" s="18"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="18"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="18"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="18"/>
-      <c r="BM17" s="18"/>
-      <c r="BN17" s="18"/>
-      <c r="BO17" s="18"/>
-      <c r="BP17" s="18"/>
-      <c r="BQ17" s="18"/>
-      <c r="BR17" s="18"/>
-      <c r="BS17" s="18"/>
-      <c r="BT17" s="18"/>
-      <c r="BU17" s="18"/>
-      <c r="BV17" s="18"/>
-      <c r="BW17" s="18"/>
-      <c r="BX17" s="18"/>
-      <c r="BY17" s="18"/>
-      <c r="BZ17" s="18"/>
-      <c r="CA17" s="18"/>
-      <c r="CB17" s="18"/>
-      <c r="CC17" s="18"/>
-      <c r="CD17" s="18"/>
-      <c r="CE17" s="18"/>
-      <c r="CF17" s="18"/>
-      <c r="CG17" s="18"/>
-      <c r="CH17" s="18"/>
-      <c r="CI17" s="18"/>
-      <c r="CJ17" s="18"/>
-      <c r="CK17" s="18"/>
-      <c r="CL17" s="18"/>
-      <c r="CM17" s="18"/>
-      <c r="CN17" s="18"/>
-      <c r="CO17" s="18"/>
-      <c r="CP17" s="18"/>
-      <c r="CQ17" s="18"/>
-      <c r="CR17" s="18"/>
-      <c r="CS17" s="18"/>
-      <c r="CT17" s="18"/>
-      <c r="CU17" s="18"/>
-    </row>
-    <row r="18" spans="1:99" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="22">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="17"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="17"/>
+      <c r="BD17" s="17"/>
+      <c r="BE17" s="17"/>
+      <c r="BF17" s="17"/>
+      <c r="BG17" s="17"/>
+      <c r="BH17" s="17"/>
+      <c r="BI17" s="17"/>
+      <c r="BJ17" s="17"/>
+      <c r="BK17" s="17"/>
+      <c r="BL17" s="17"/>
+      <c r="BM17" s="17"/>
+      <c r="BN17" s="17"/>
+      <c r="BO17" s="17"/>
+      <c r="BP17" s="17"/>
+      <c r="BQ17" s="17"/>
+      <c r="BR17" s="17"/>
+      <c r="BS17" s="17"/>
+      <c r="BT17" s="17"/>
+      <c r="BU17" s="17"/>
+      <c r="BV17" s="17"/>
+      <c r="BW17" s="17"/>
+      <c r="BX17" s="17"/>
+      <c r="BY17" s="17"/>
+      <c r="BZ17" s="17"/>
+      <c r="CA17" s="17"/>
+      <c r="CB17" s="17"/>
+      <c r="CC17" s="17"/>
+      <c r="CD17" s="17"/>
+      <c r="CE17" s="17"/>
+      <c r="CF17" s="17"/>
+      <c r="CG17" s="17"/>
+      <c r="CH17" s="17"/>
+      <c r="CI17" s="17"/>
+      <c r="CJ17" s="17"/>
+      <c r="CK17" s="17"/>
+      <c r="CL17" s="17"/>
+      <c r="CM17" s="17"/>
+      <c r="CN17" s="17"/>
+      <c r="CO17" s="17"/>
+      <c r="CP17" s="17"/>
+      <c r="CQ17" s="17"/>
+      <c r="CR17" s="17"/>
+      <c r="CS17" s="17"/>
+      <c r="CT17" s="17"/>
+      <c r="CU17" s="17"/>
+    </row>
+    <row r="18" spans="1:99" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="22">
         <v>3011390</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="12"/>
@@ -4072,11 +4268,11 @@
       <c r="CT18" s="12"/>
       <c r="CU18" s="12"/>
     </row>
-    <row r="19" spans="1:99" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:99" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>5011418</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4085,61 +4281,61 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="59" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="58" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="57" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="56" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="55" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="54" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="53" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="52" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="51" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="50" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="49" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="48" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="45" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="44" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4148,83 +4344,97 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="7.26953125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="21">
         <v>4011391</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>4011392</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="D4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>4011393</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="D5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>4011394</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4235,278 +4445,219 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>4011395</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>4011397</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>4011398</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>4011399</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>4011400</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>4011401</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>4011402</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>4011403</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>4011404</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>4011405</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>4011406</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>4011407</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="40" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="39" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="38" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="37" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="36" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="35" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="34" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="33" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="32" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="31" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="29" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="28" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="27" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="144" operator="containsText" text="TB" id="{5D244C68-D934-4131-8F4C-2569A8882AFE}">
-            <xm:f>NOT(ISERROR(SEARCH("TB",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="145" stopIfTrue="1" operator="containsText" text="TKRO" id="{3C5A377B-805F-4830-9E73-C5A13DB5AF40}">
-            <xm:f>NOT(ISERROR(SEARCH("TKRO",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="146" operator="containsText" text="BKP" id="{5489B94F-B6F6-4C91-BE74-433C34E0E215}">
-            <xm:f>NOT(ISERROR(SEARCH("BKP",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="147" operator="containsText" text="MM" id="{7267CFB9-4765-4F41-B165-5EAA4FEC82C3}">
-            <xm:f>NOT(ISERROR(SEARCH("MM",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="148" operator="containsText" text="RPL" id="{E471E3D6-E751-4144-BD58-019B1744F15B}">
-            <xm:f>NOT(ISERROR(SEARCH("RPL",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="12" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" s="35" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4517,220 +4668,232 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="21">
         <v>5011408</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="D3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="1">
         <v>5011409</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+      <c r="D4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>5011410</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>5011411</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>5011412</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>5011414</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>5011416</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="1">
         <v>5011417</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>5011419</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>5011420</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:5" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>5011421</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="1">
         <v>5011422</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:5" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>5011423</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>5011424</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>5011425</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:3" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>5011427</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:3" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>5011428</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:3" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>5011429</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="36" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:3" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>5011430</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="31" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:3" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>5011431</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4739,137 +4902,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="23" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="22" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="21" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="20" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="19" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="18" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="17" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="16" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="15" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="14" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="13" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="12" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="11" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="10" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="9" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="8" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="7" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="5" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="4" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B5:B17">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B22">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="204" operator="containsText" text="TB" id="{C8E1BF0A-6FB3-434D-8B05-D64713BBB6D4}">
-            <xm:f>NOT(ISERROR(SEARCH("TB",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="205" stopIfTrue="1" operator="containsText" text="TKRO" id="{CBED17D0-0FD1-4020-BE5C-8C142E09E9E1}">
-            <xm:f>NOT(ISERROR(SEARCH("TKRO",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="206" operator="containsText" text="BKP" id="{70473DBE-11EA-492D-9B94-621AEFBBC169}">
-            <xm:f>NOT(ISERROR(SEARCH("BKP",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="207" operator="containsText" text="MM" id="{679481E4-D6C8-459B-A847-A19E2A862F18}">
-            <xm:f>NOT(ISERROR(SEARCH("MM",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="208" operator="containsText" text="RPL" id="{6D829B81-EC0C-433F-90A5-352FD35CD5B8}">
-            <xm:f>NOT(ISERROR(SEARCH("RPL",TKRO!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>